--- a/docs/requirements/Master Data Tables - Test Data/master-template_file_format.xlsx
+++ b/docs/requirements/Master Data Tables - Test Data/master-template_file_format.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="27">
   <si>
     <t>code</t>
   </si>
@@ -88,6 +88,18 @@
   </si>
   <si>
     <t>fra</t>
+  </si>
+  <si>
+    <t>html</t>
+  </si>
+  <si>
+    <t>ملف html</t>
+  </si>
+  <si>
+    <t>html file</t>
+  </si>
+  <si>
+    <t>Fichier html</t>
   </si>
 </sst>
 </file>
@@ -408,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G1" sqref="G1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -620,6 +632,66 @@
         <v>7</v>
       </c>
     </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
